--- a/data/curriculum_matrix/空间信息与数字技术_课程矩阵.xlsx
+++ b/data/curriculum_matrix/空间信息与数字技术_课程矩阵.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EN101 大学英语1（必修）</t>
+          <t>EN102 大学英语2（必修）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CM201 C语言程序设计（必修）</t>
+          <t>CM202 C++程序设计基础（必修）</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CM206 计算机组成原理（必修）</t>
+          <t>GE112 音乐鉴赏（选修）</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,29 +513,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TC401 移动通信原理（必修）</t>
+          <t>TC402 数字通信系统（选修）</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EN102 大学英语2（必修）</t>
+          <t>MA101 高等数学A(上)（必修）</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EN102 大学英语2（必修）</t>
+          <t>MA102 高等数学A(下)（必修）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CM202 C++程序设计基础（必修）</t>
+          <t>CM203 Python程序设计基础（必修）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CM202 C++程序设计基础（必修）</t>
+          <t>GE102 经济学原理（选修）</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,39 +545,35 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CM207 操作系统原理（必修）</t>
+          <t>TC302 通信原理（必修）</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TC402 数字通信系统（选修）</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>TC402 数字通信系统（选修）</t>
-        </is>
-      </c>
+          <t>TC403 光纤通信技术（选修）</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MA101 高等数学A(上)（必修）</t>
+          <t>ML101 军事理论（必修）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA101 高等数学A(上)（必修）</t>
+          <t>PE102 大学体育2（必修）</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CM203 Python程序设计基础（必修）</t>
+          <t>CM204 数据结构与算法设计（必修）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CM203 Python程序设计基础（必修）</t>
+          <t>MA202 概率论与数理统计（必修）</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -585,41 +581,25 @@
           <t>CM208 数据库系统基础（必修）</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CM208 数据库系统基础（必修）</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>TC403 光纤通信技术（选修）</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>TC403 光纤通信技术（选修）</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MA102 高等数学A(下)（必修）</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MA102 高等数学A(下)（必修）</t>
-        </is>
-      </c>
+          <t>PE101 大学体育1（必修）</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CM204 数据结构与算法设计（必修）</t>
+          <t>CM205 离散数学（必修）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CM204 数据结构与算法设计（必修）</t>
+          <t>PH102 大学物理A(下)（必修）</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -627,33 +607,25 @@
           <t>CM209 计算机网络基础（必修）</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CM209 计算机网络基础（必修）</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ML101 军事理论（必修）</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ML101 军事理论（必修）</t>
-        </is>
-      </c>
+          <t>PH101 大学物理A(上)（必修）</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CM205 离散数学（必修）</t>
+          <t>EN103 大学英语3（必修）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CM205 离散数学（必修）</t>
+          <t>TC202 模拟电子技术基础（必修）</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -661,33 +633,25 @@
           <t>CM210 软件工程导论（必修）</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CM210 软件工程导论（必修）</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PE101 大学体育1（必修）</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PE101 大学体育1（必修）</t>
-        </is>
-      </c>
+          <t>XL101 大学生心理健康教育（必修）</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EN103 大学英语3（必修）</t>
+          <t>EN104 大学英语4（必修）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EN103 大学英语3（必修）</t>
+          <t>ZX102 马克思主义基本原理（必修）</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -695,147 +659,83 @@
           <t>GE108 哲学与人生（选修）</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>GE108 哲学与人生（选修）</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PE102 大学体育2（必修）</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PE102 大学体育2（必修）</t>
-        </is>
-      </c>
+          <t>ZX101 思想道德与法治（必修）</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EN104 大学英语4（必修）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>EN104 大学英语4（必修）</t>
-        </is>
-      </c>
+          <t>GE101 艺术欣赏（选修）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>GE109 逻辑思维训练（选修）</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>GE109 逻辑思维训练（选修）</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PH101 大学物理A(上)（必修）</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PH101 大学物理A(上)（必修）</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GE101 艺术欣赏（选修）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GE101 艺术欣赏（选修）</t>
-        </is>
-      </c>
+          <t>GE103 摄影基础（选修）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>GE110 创新创业基础（选修）</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>GE110 创新创业基础（选修）</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>XL101 大学生心理健康教育（必修）</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>XL101 大学生心理健康教育（必修）</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GE102 经济学原理（选修）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GE102 经济学原理（选修）</t>
-        </is>
-      </c>
+          <t>GE104 影视鉴赏（选修）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>GE111 书法艺术（选修）</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>GE111 书法艺术（选修）</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ZX101 思想道德与法治（必修）</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ZX101 思想道德与法治（必修）</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GE103 摄影基础（选修）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GE103 摄影基础（选修）</t>
-        </is>
-      </c>
+          <t>GE105 管理学基础（选修）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GE112 音乐鉴赏（选修）</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>GE112 音乐鉴赏（选修）</t>
-        </is>
-      </c>
+          <t>GE113 世界文明史（选修）</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
@@ -844,24 +744,16 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GE104 影视鉴赏（选修）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GE104 影视鉴赏（选修）</t>
-        </is>
-      </c>
+          <t>GE106 心理学导论（选修）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GE113 世界文明史（选修）</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>GE113 世界文明史（选修）</t>
-        </is>
-      </c>
+          <t>GE114 环境与可持续发展（选修）</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
@@ -870,24 +762,16 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GE105 管理学基础（选修）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GE105 管理学基础（选修）</t>
-        </is>
-      </c>
+          <t>GE107 统计学基础（选修）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GE114 环境与可持续发展（选修）</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>GE114 环境与可持续发展（选修）</t>
-        </is>
-      </c>
+          <t>GE115 法律基础与法治思维（选修）</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
@@ -896,24 +780,16 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GE106 心理学导论（选修）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GE106 心理学导论（选修）</t>
-        </is>
-      </c>
+          <t>HX101 中国近现代史纲要（必修）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GE115 法律基础与法治思维（选修）</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>GE115 法律基础与法治思维（选修）</t>
-        </is>
-      </c>
+          <t>GE116 公共演讲与表达（选修）</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
@@ -922,24 +798,16 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GE107 统计学基础（选修）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GE107 统计学基础（选修）</t>
-        </is>
-      </c>
+          <t>MA201 线性代数（必修）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GE116 公共演讲与表达（选修）</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>GE116 公共演讲与表达（选修）</t>
-        </is>
-      </c>
+          <t>GE117 职业生涯规划（选修）</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
     </row>
@@ -948,24 +816,16 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HX101 中国近现代史纲要（必修）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>HX101 中国近现代史纲要（必修）</t>
-        </is>
-      </c>
+          <t>PE103 大学体育3（必修）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GE117 职业生涯规划（选修）</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>GE117 职业生涯规划（选修）</t>
-        </is>
-      </c>
+          <t>GE118 项目管理基础（选修）</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
     </row>
@@ -974,24 +834,16 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MA201 线性代数（必修）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>MA201 线性代数（必修）</t>
-        </is>
-      </c>
+          <t>PE104 大学体育4（必修）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GE118 项目管理基础（选修）</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>GE118 项目管理基础（选修）</t>
-        </is>
-      </c>
+          <t>GE119 城市与社会发展（选修）</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
     </row>
@@ -1000,24 +852,16 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MA202 概率论与数理统计（必修）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>MA202 概率论与数理统计（必修）</t>
-        </is>
-      </c>
+          <t>TC201 电路分析基础（必修）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GE119 城市与社会发展（选修）</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>GE119 城市与社会发展（选修）</t>
-        </is>
-      </c>
+          <t>GE120 人工智能与社会（选修）</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
     </row>
@@ -1026,158 +870,32 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PE103 大学体育3（必修）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>PE103 大学体育3（必修）</t>
-        </is>
-      </c>
+          <t>TC203 数字电子技术基础（必修）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GE120 人工智能与社会（选修）</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>GE120 人工智能与社会（选修）</t>
-        </is>
-      </c>
+          <t>TC301 信号与系统（必修）</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>PE104 大学体育4（必修）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>PE104 大学体育4（必修）</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TC301 信号与系统（必修）</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>TC301 信号与系统（必修）</t>
-        </is>
-      </c>
+          <t>TC303 信息论与编码（必修）</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>PH102 大学物理A(下)（必修）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>PH102 大学物理A(下)（必修）</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TC302 通信原理（必修）</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>TC302 通信原理（必修）</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>TC201 电路分析基础（必修）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>TC201 电路分析基础（必修）</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>TC303 信息论与编码（必修）</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>TC303 信息论与编码（必修）</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>TC202 模拟电子技术基础（必修）</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>TC202 模拟电子技术基础（必修）</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>TC203 数字电子技术基础（必修）</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>TC203 数字电子技术基础（必修）</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>ZX102 马克思主义基本原理（必修）</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>ZX102 马克思主义基本原理（必修）</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/curriculum_matrix/空间信息与数字技术_课程矩阵.xlsx
+++ b/data/curriculum_matrix/空间信息与数字技术_课程矩阵.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CM206 计算机组成原理（必修）</t>
+          <t>AI310 人工智能创新与实践（选修）</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CM207 操作系统原理（必修）</t>
+          <t>CM206 计算机组成原理（必修）</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ML101 军事理论（必修）</t>
+          <t>MA201 线性代数（必修）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CM208 数据库系统基础（必修）</t>
+          <t>CM207 操作系统原理（必修）</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -588,10 +588,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PE101 大学体育1（必修）</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>ML101 军事理论（必修）</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PH102 大学物理A(下)（必修）</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>CM205 离散数学（必修）</t>
@@ -599,12 +603,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PH102 大学物理A(下)（必修）</t>
+          <t>TC202 模拟电子技术基础（必修）</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CM209 计算机网络基础（必修）</t>
+          <t>CM208 数据库系统基础（必修）</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -614,7 +618,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PH101 大学物理A(上)（必修）</t>
+          <t>PE101 大学体育1（必修）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -625,12 +629,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TC202 模拟电子技术基础（必修）</t>
+          <t>ZX102 马克思主义基本原理（必修）</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CM210 软件工程导论（必修）</t>
+          <t>CM209 计算机网络基础（必修）</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -640,7 +644,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>XL101 大学生心理健康教育（必修）</t>
+          <t>PH101 大学物理A(上)（必修）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -649,14 +653,10 @@
           <t>EN104 大学英语4（必修）</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ZX102 马克思主义基本原理（必修）</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GE108 哲学与人生（选修）</t>
+          <t>CM210 软件工程导论（必修）</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -666,7 +666,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZX101 思想道德与法治（必修）</t>
+          <t>XL101 大学生心理健康教育（必修）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -678,7 +678,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GE109 逻辑思维训练（选修）</t>
+          <t>CS410 大模型工业应用及实践（选修）</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -686,7 +686,11 @@
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>YW101 大学语文（必修）</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
@@ -696,7 +700,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GE110 创新创业基础（选修）</t>
+          <t>EE410 小程序设计与开发（选修）</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -704,7 +708,11 @@
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ZX101 思想道德与法治（必修）</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
@@ -714,7 +722,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GE111 书法艺术（选修）</t>
+          <t>GE108 哲学与人生（选修）</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -732,7 +740,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GE113 世界文明史（选修）</t>
+          <t>GE109 逻辑思维训练（选修）</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -750,7 +758,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GE114 环境与可持续发展（选修）</t>
+          <t>GE110 创新创业基础（选修）</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -768,7 +776,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GE115 法律基础与法治思维（选修）</t>
+          <t>GE111 书法艺术（选修）</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -786,7 +794,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GE116 公共演讲与表达（选修）</t>
+          <t>GE113 世界文明史（选修）</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -798,13 +806,13 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MA201 线性代数（必修）</t>
+          <t>PE103 大学体育3（必修）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GE117 职业生涯规划（选修）</t>
+          <t>GE114 环境与可持续发展（选修）</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -816,13 +824,13 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PE103 大学体育3（必修）</t>
+          <t>PE104 大学体育4（必修）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GE118 项目管理基础（选修）</t>
+          <t>GE115 法律基础与法治思维（选修）</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -834,13 +842,13 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PE104 大学体育4（必修）</t>
+          <t>TC201 电路分析基础（必修）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GE119 城市与社会发展（选修）</t>
+          <t>GE116 公共演讲与表达（选修）</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -852,13 +860,13 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TC201 电路分析基础（必修）</t>
+          <t>TC203 数字电子技术基础（必修）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GE120 人工智能与社会（选修）</t>
+          <t>GE117 职业生涯规划（选修）</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -870,13 +878,13 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TC203 数字电子技术基础（必修）</t>
+          <t>ZX103 毛泽东思想和中国特色社会主义理论体系概论（必修）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TC301 信号与系统（必修）</t>
+          <t>GE118 项目管理基础（选修）</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -890,12 +898,54 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TC303 信息论与编码（必修）</t>
+          <t>GE119 城市与社会发展（选修）</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GE120 人工智能与社会（选修）</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TC301 信号与系统（必修）</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TC303 信息论与编码（必修）</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/curriculum_matrix/空间信息与数字技术_课程矩阵.xlsx
+++ b/data/curriculum_matrix/空间信息与数字技术_课程矩阵.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,474 +478,1570 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EN101 大学英语1（必修）</t>
+          <t>AI310 人工智能创新与实践（公选）</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EN102 大学英语2（必修）</t>
+          <t>AI310 人工智能创新与实践（公选）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CM201 C语言程序设计（必修）</t>
+          <t>AI310 人工智能创新与实践（公选）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CM202 C++程序设计基础（必修）</t>
+          <t>AI310 人工智能创新与实践（公选）</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI310 人工智能创新与实践（选修）</t>
+          <t>AI310 人工智能创新与实践（公选）</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GE112 音乐鉴赏（选修）</t>
+          <t>AI310 人工智能创新与实践（公选）</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TC401 移动通信原理（必修）</t>
+          <t>AI310 人工智能创新与实践（公选）</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>TC402 数字通信系统（选修）</t>
+          <t>AI310 人工智能创新与实践（公选）</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MA101 高等数学A(上)（必修）</t>
+          <t>CS410 大模型工业应用及实践（公选）</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA102 高等数学A(下)（必修）</t>
+          <t>CS410 大模型工业应用及实践（公选）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CM203 Python程序设计基础（必修）</t>
+          <t>CS410 大模型工业应用及实践（公选）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GE102 经济学原理（选修）</t>
+          <t>CS410 大模型工业应用及实践（公选）</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CM206 计算机组成原理（必修）</t>
+          <t>CS410 大模型工业应用及实践（公选）</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TC302 通信原理（必修）</t>
+          <t>CS410 大模型工业应用及实践（公选）</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TC403 光纤通信技术（选修）</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>CS410 大模型工业应用及实践（公选）</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CS410 大模型工业应用及实践（公选）</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MA201 线性代数（必修）</t>
+          <t>EE410 小程序设计与开发（公选）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PE102 大学体育2（必修）</t>
+          <t>EE410 小程序设计与开发（公选）</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CM204 数据结构与算法设计（必修）</t>
+          <t>EE410 小程序设计与开发（公选）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA202 概率论与数理统计（必修）</t>
+          <t>EE410 小程序设计与开发（公选）</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CM207 操作系统原理（必修）</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>EE410 小程序设计与开发（公选）</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EE410 小程序设计与开发（公选）</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>EE410 小程序设计与开发（公选）</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>EE410 小程序设计与开发（公选）</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ML101 军事理论（必修）</t>
+          <t>GE101 艺术欣赏（公选）</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH102 大学物理A(下)（必修）</t>
+          <t>GE101 艺术欣赏（公选）</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CM205 离散数学（必修）</t>
+          <t>GE101 艺术欣赏（公选）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TC202 模拟电子技术基础（必修）</t>
+          <t>GE101 艺术欣赏（公选）</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CM208 数据库系统基础（必修）</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>GE101 艺术欣赏（公选）</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>GE101 艺术欣赏（公选）</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>GE101 艺术欣赏（公选）</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>GE101 艺术欣赏（公选）</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PE101 大学体育1（必修）</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>GE102 影视鉴赏（公选）</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GE102 影视鉴赏（公选）</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EN103 大学英语3（必修）</t>
+          <t>GE102 影视鉴赏（公选）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ZX102 马克思主义基本原理（必修）</t>
+          <t>GE102 影视鉴赏（公选）</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CM209 计算机网络基础（必修）</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>GE102 影视鉴赏（公选）</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>GE102 影视鉴赏（公选）</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>GE102 影视鉴赏（公选）</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>GE102 影视鉴赏（公选）</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PH101 大学物理A(上)（必修）</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>GE103 音乐鉴赏（公选）</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GE103 音乐鉴赏（公选）</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EN104 大学英语4（必修）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>GE103 音乐鉴赏（公选）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GE103 音乐鉴赏（公选）</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CM210 软件工程导论（必修）</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>GE103 音乐鉴赏（公选）</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>GE103 音乐鉴赏（公选）</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>GE103 音乐鉴赏（公选）</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>GE103 音乐鉴赏（公选）</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>XL101 大学生心理健康教育（必修）</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>GE104 书法艺术（公选）</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GE104 书法艺术（公选）</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GE101 艺术欣赏（选修）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>GE104 书法艺术（公选）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GE104 书法艺术（公选）</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS410 大模型工业应用及实践（选修）</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>GE104 书法艺术（公选）</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>GE104 书法艺术（公选）</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>GE104 书法艺术（公选）</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>GE104 书法艺术（公选）</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>YW101 大学语文（必修）</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>GE105 中国传统文化（公选）</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GE105 中国传统文化（公选）</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GE103 摄影基础（选修）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>GE105 中国传统文化（公选）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GE105 中国传统文化（公选）</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EE410 小程序设计与开发（选修）</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>GE105 中国传统文化（公选）</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>GE105 中国传统文化（公选）</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>GE105 中国传统文化（公选）</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>GE105 中国传统文化（公选）</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>GE106 西方文化概论（公选）</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GE106 西方文化概论（公选）</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GE106 西方文化概论（公选）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GE106 西方文化概论（公选）</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GE106 西方文化概论（公选）</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>GE106 西方文化概论（公选）</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>GE106 西方文化概论（公选）</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>GE106 西方文化概论（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GE107 经济学原理（公选）</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GE107 经济学原理（公选）</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GE107 经济学原理（公选）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GE107 经济学原理（公选）</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GE107 经济学原理（公选）</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>GE107 经济学原理（公选）</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>GE107 经济学原理（公选）</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>GE107 经济学原理（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GE108 心理学导论（公选）</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GE108 心理学导论（公选）</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GE108 心理学导论（公选）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GE108 心理学导论（公选）</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GE108 心理学导论（公选）</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>GE108 心理学导论（公选）</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>GE108 心理学导论（公选）</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>GE108 心理学导论（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GE109 法律基础与法治思维（公选）</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GE109 法律基础与法治思维（公选）</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GE109 法律基础与法治思维（公选）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GE109 法律基础与法治思维（公选）</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GE109 法律基础与法治思维（公选）</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>GE109 法律基础与法治思维（公选）</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>GE109 法律基础与法治思维（公选）</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>GE109 法律基础与法治思维（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GE110 管理学基础（公选）</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GE110 管理学基础（公选）</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GE110 管理学基础（公选）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GE110 管理学基础（公选）</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GE110 管理学基础（公选）</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>GE110 管理学基础（公选）</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>GE110 管理学基础（公选）</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>GE110 管理学基础（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GE111 社会心理学（公选）</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GE111 社会心理学（公选）</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GE111 社会心理学（公选）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GE111 社会心理学（公选）</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GE111 社会心理学（公选）</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>GE111 社会心理学（公选）</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>GE111 社会心理学（公选）</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>GE111 社会心理学（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GE112 逻辑思维训练（公选）</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GE112 逻辑思维训练（公选）</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GE112 逻辑思维训练（公选）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GE112 逻辑思维训练（公选）</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GE112 逻辑思维训练（公选）</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>GE112 逻辑思维训练（公选）</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>GE112 逻辑思维训练（公选）</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>GE112 逻辑思维训练（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GE113 批判性思维（公选）</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GE113 批判性思维（公选）</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GE113 批判性思维（公选）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GE113 批判性思维（公选）</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GE113 批判性思维（公选）</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>GE113 批判性思维（公选）</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>GE113 批判性思维（公选）</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>GE113 批判性思维（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GE114 哲学与人生（公选）</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GE114 哲学与人生（公选）</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GE114 哲学与人生（公选）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GE114 哲学与人生（公选）</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GE114 哲学与人生（公选）</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>GE114 哲学与人生（公选）</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>GE114 哲学与人生（公选）</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>GE114 哲学与人生（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GE115 公共演讲与表达（公选）</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GE115 公共演讲与表达（公选）</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GE115 公共演讲与表达（公选）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GE115 公共演讲与表达（公选）</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GE115 公共演讲与表达（公选）</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>GE115 公共演讲与表达（公选）</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>GE115 公共演讲与表达（公选）</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>GE115 公共演讲与表达（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GE116 创新创业基础（公选）</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GE116 创新创业基础（公选）</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GE116 创新创业基础（公选）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GE116 创新创业基础（公选）</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GE116 创新创业基础（公选）</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>GE116 创新创业基础（公选）</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>GE116 创新创业基础（公选）</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>GE116 创新创业基础（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GE117 职业生涯规划（公选）</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GE117 职业生涯规划（公选）</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GE117 职业生涯规划（公选）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GE117 职业生涯规划（公选）</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GE117 职业生涯规划（公选）</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>GE117 职业生涯规划（公选）</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>GE117 职业生涯规划（公选）</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>GE117 职业生涯规划（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GE118 项目管理基础（公选）</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GE118 项目管理基础（公选）</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GE118 项目管理基础（公选）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GE118 项目管理基础（公选）</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>GE118 项目管理基础（公选）</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>GE118 项目管理基础（公选）</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>GE118 项目管理基础（公选）</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>GE118 项目管理基础（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GE119 人工智能与社会（公选）</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GE119 人工智能与社会（公选）</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GE119 人工智能与社会（公选）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GE119 人工智能与社会（公选）</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>GE119 人工智能与社会（公选）</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>GE119 人工智能与社会（公选）</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>GE119 人工智能与社会（公选）</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>GE119 人工智能与社会（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GE120 数据可视化（公选）</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GE120 数据可视化（公选）</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GE120 数据可视化（公选）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GE120 数据可视化（公选）</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>GE120 数据可视化（公选）</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>GE120 数据可视化（公选）</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>GE120 数据可视化（公选）</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>GE120 数据可视化（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GE121 科技写作（公选）</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GE121 科技写作（公选）</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GE121 科技写作（公选）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GE121 科技写作（公选）</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GE121 科技写作（公选）</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>GE121 科技写作（公选）</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>GE121 科技写作（公选）</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>GE121 科技写作（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GE122 跨文化交际（公选）</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GE122 跨文化交际（公选）</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GE122 跨文化交际（公选）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GE122 跨文化交际（公选）</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>GE122 跨文化交际（公选）</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>GE122 跨文化交际（公选）</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>GE122 跨文化交际（公选）</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>GE122 跨文化交际（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GE123 世界文明史（公选）</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GE123 世界文明史（公选）</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GE123 世界文明史（公选）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GE123 世界文明史（公选）</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>GE123 世界文明史（公选）</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>GE123 世界文明史（公选）</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>GE123 世界文明史（公选）</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>GE123 世界文明史（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GE124 环境与可持续发展（公选）</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GE124 环境与可持续发展（公选）</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GE124 环境与可持续发展（公选）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GE124 环境与可持续发展（公选）</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>GE124 环境与可持续发展（公选）</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>GE124 环境与可持续发展（公选）</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>GE124 环境与可持续发展（公选）</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>GE124 环境与可持续发展（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GE125 城市与社会发展（公选）</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GE125 城市与社会发展（公选）</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>GE125 城市与社会发展（公选）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GE125 城市与社会发展（公选）</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>GE125 城市与社会发展（公选）</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>GE125 城市与社会发展（公选）</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>GE125 城市与社会发展（公选）</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>GE125 城市与社会发展（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SC410 网络安全意识与防护（公选）</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SC410 网络安全意识与防护（公选）</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SC410 网络安全意识与防护（公选）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SC410 网络安全意识与防护（公选）</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SC410 网络安全意识与防护（公选）</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SC410 网络安全意识与防护（公选）</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>SC410 网络安全意识与防护（公选）</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>SC410 网络安全意识与防护（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TC410 5G通信技术概论（公选）</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TC410 5G通信技术概论（公选）</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>TC410 5G通信技术概论（公选）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TC410 5G通信技术概论（公选）</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>TC410 5G通信技术概论（公选）</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TC410 5G通信技术概论（公选）</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>TC410 5G通信技术概论（公选）</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TC410 5G通信技术概论（公选）</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EN101 大学英语1（必修）</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>EN102 大学英语2（必修）</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CM201 C语言程序设计（必修）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CM202 C++程序设计基础（必修）</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>CM206 计算机组成原理（必修）</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TC302 通信原理（必修）</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>TC401 移动通信原理（必修）</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TC402 数字通信系统（选修）</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MA101 高等数学A(上)（必修）</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MA102 高等数学A(下)（必修）</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CM203 Python程序设计基础（必修）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>EN104 大学英语4（必修）</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CM207 操作系统原理（必修）</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>TC403 光纤通信技术（选修）</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MA201 线性代数（必修）</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PE102 大学体育2（必修）</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CM204 数据结构与算法设计（必修）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>MA202 概率论与数理统计（必修）</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CM208 数据库系统基础（必修）</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>TC404 卫星通信（选修）</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ML101 军事理论（必修）</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PH102 大学物理A(下)（必修）</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CM205 离散数学（必修）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PE104 大学体育4（必修）</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>CM209 计算机网络基础（必修）</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>TC405 物联网通信技术（选修）</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PE101 大学体育1（必修）</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>EN103 大学英语3（必修）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TC202 模拟电子技术基础（必修）</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>CM210 软件工程导论（必修）</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PH101 大学物理A(上)（必修）</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>HX101 中国近现代史纲要（必修）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ZX102 马克思主义基本原理（必修）</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>TC301 信号与系统（必修）</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>XL101 大学生心理健康教育（必修）</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PE103 大学体育3（必修）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TC303 信息论与编码（必修）</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>YW101 大学语文（必修）</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>TC201 电路分析基础（必修）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>TC304 数字信号处理（选修）</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>ZX101 思想道德与法治（必修）</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>GE104 影视鉴赏（选修）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GE108 哲学与人生（选修）</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>GE105 管理学基础（选修）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GE109 逻辑思维训练（选修）</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>GE106 心理学导论（选修）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GE110 创新创业基础（选修）</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>GE107 统计学基础（选修）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GE111 书法艺术（选修）</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>HX101 中国近现代史纲要（必修）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GE113 世界文明史（选修）</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>PE103 大学体育3（必修）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>GE114 环境与可持续发展（选修）</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>PE104 大学体育4（必修）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>GE115 法律基础与法治思维（选修）</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>TC201 电路分析基础（必修）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GE116 公共演讲与表达（选修）</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
         <is>
           <t>TC203 数字电子技术基础（必修）</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GE117 职业生涯规划（选修）</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>TC305 通信网络基础（选修）</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>TC204 高频电子线路（选修）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TC306 无线通信技术（选修）</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>TC205 电磁场与微波技术（选修）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
         <is>
           <t>ZX103 毛泽东思想和中国特色社会主义理论体系概论（必修）</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GE118 项目管理基础（选修）</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>GE119 城市与社会发展（选修）</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>GE120 人工智能与社会（选修）</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>TC301 信号与系统（必修）</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>TC303 信息论与编码（必修）</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
